--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -1553,7 +1553,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="billingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1570,7 +1570,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1588,7 +1588,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="typeofbill"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1605,7 +1605,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="admsrc"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1622,7 +1622,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="admtype"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1639,7 +1639,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="discharge-status"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2474,7 +2474,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
     &lt;code value="denialreason"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2491,7 +2491,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
     &lt;code value="allowedunits"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -1692,7 +1692,7 @@
     <t>Provides health context for the evaluation of the products and/or services.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CM</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CDCICD910CMDiagnosisCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -8638,7 +8638,7 @@
         <v>43</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
@@ -20402,7 +20402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
         <v>548</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>43</v>
@@ -20957,7 +20957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
         <v>559</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>43</v>
@@ -21068,7 +21068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
         <v>563</v>
       </c>
@@ -21084,7 +21084,7 @@
         <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -12255,7 +12255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>465</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>43</v>
@@ -12368,7 +12368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>471</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>43</v>
@@ -12477,7 +12477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>475</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>43</v>
@@ -13373,7 +13373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>465</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>43</v>
@@ -13484,7 +13484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>471</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>43</v>
@@ -13593,7 +13593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>475</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>43</v>
@@ -14489,7 +14489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>465</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>43</v>
@@ -14602,7 +14602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>471</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>43</v>
@@ -14711,7 +14711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>475</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>43</v>
@@ -15607,7 +15607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>465</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>43</v>
@@ -15718,7 +15718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>471</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>43</v>
@@ -15827,7 +15827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>475</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>50</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>43</v>
@@ -16723,7 +16723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>465</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>50</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>43</v>
@@ -16834,7 +16834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>471</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>43</v>
@@ -16943,7 +16943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>475</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>50</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>43</v>
@@ -17839,7 +17839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>465</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>43</v>
@@ -17950,7 +17950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>471</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>43</v>
@@ -18059,7 +18059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>475</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>50</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>43</v>
@@ -18955,7 +18955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>465</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>50</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>43</v>
@@ -19066,7 +19066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>471</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>43</v>
@@ -19175,7 +19175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>475</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>50</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -12144,7 +12144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>459</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -163,7 +163,10 @@
     )}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to an organization {( 
      careTeam.where(role.where(coding.where(code='performing').exists()).exists()).exists() implies
      careTeam.where(role.where(coding.where(code='performing').exists()).exists()).provider.all(resolve() is Organization)
-    )}EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}</t>
+    )}EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {( 
+     careTeam.where(role.where(coding.where(code='performing').exists()).exists()).exists() implies
+     careTeam.where(role.where(coding.where(code='performing').exists()).exists()).qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')
+    )}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Outpatient-Institutional.xlsx
@@ -12712,7 +12712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>485</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>43</v>
@@ -13832,7 +13832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>485</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>43</v>
@@ -14950,7 +14950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>485</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>43</v>
@@ -16070,7 +16070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>485</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>43</v>
@@ -16181,7 +16181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>491</v>
       </c>
@@ -16191,13 +16191,13 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -17188,7 +17188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>485</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>50</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>43</v>
@@ -18306,7 +18306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>485</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>43</v>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>50</v>
@@ -19424,7 +19424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>485</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>50</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>43</v>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s" s="2">
         <v>50</v>
